--- a/data/CompanyProperty.xlsx
+++ b/data/CompanyProperty.xlsx
@@ -367,7 +367,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -419,10 +419,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -826,12 +826,892 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>11</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>11</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>11</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>12</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>12</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>12</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>12</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>12</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>13</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>13</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>13</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>14</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>14</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="n">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="n">
+        <v>14</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="n">
+        <v>14</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="n">
+        <v>14</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="n">
+        <v>15</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="n">
+        <v>15</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="n">
+        <v>15</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="n">
+        <v>15</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="n">
+        <v>15</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="n">
+        <v>15</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="n">
+        <v>16</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="n">
+        <v>16</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="n">
+        <v>16</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="n">
+        <v>16</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="n">
+        <v>16</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="n">
+        <v>16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="n">
+        <v>17</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="n">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="n">
+        <v>17</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="n">
+        <v>17</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="n">
+        <v>17</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="n">
+        <v>17</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="n">
+        <v>18</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="n">
+        <v>18</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="n">
+        <v>18</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="n">
+        <v>18</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="n">
+        <v>18</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="n">
+        <v>18</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="n">
+        <v>19</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="n">
+        <v>19</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="n">
+        <v>19</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="n">
+        <v>19</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="n">
+        <v>19</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="n">
+        <v>19</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="n">
         <v>20</v>
       </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="n">
+        <v>20</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="n">
+        <v>20</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="n">
+        <v>20</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="n">
+        <v>20</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="n">
+        <v>20</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
